--- a/biology/Médecine/Loi_réglementant_certaines_drogues_et_autres_substances/Loi_réglementant_certaines_drogues_et_autres_substances.xlsx
+++ b/biology/Médecine/Loi_réglementant_certaines_drogues_et_autres_substances/Loi_réglementant_certaines_drogues_et_autres_substances.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Loi_r%C3%A9glementant_certaines_drogues_et_autres_substances</t>
+          <t>Loi_réglementant_certaines_drogues_et_autres_substances</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Loi réglementant certaines drogues et autres substances est la loi fédérale du Canada contrôlant les drogues. Elle a été adoptée en 1996 et remplace la Loi sur les stupéfiants ainsi que les parties III et IV de la Loi sur les aliments et drogues. Elle définit huit annexes de substances contrôlées. La loi prévoit également que le Gouverneur général en conseil peut modifier ces annexes pour y ajouter ou y retirer des items ou des portions d'items s'il croit que cette modification est nécessaire pour l'intérêt public.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Loi_r%C3%A9glementant_certaines_drogues_et_autres_substances</t>
+          <t>Loi_réglementant_certaines_drogues_et_autres_substances</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Annexe I
-Le pavot à opium (Papaver somniferum) ainsi que ses préparations, ses dérivés, ses alcaloïdes et ses sels, notamment :
+          <t>Annexe I</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le pavot à opium (Papaver somniferum) ainsi que ses préparations, ses dérivés, ses alcaloïdes et ses sels, notamment :
 L'opium
 La codéine (méthylmorphine)
 La morphine (didéhydro-7,8 époxy-4,5 méthyl-17 morphinanediol-3,6)
@@ -710,9 +727,43 @@
 L'isophénidine (NPDPA) (N-isopropyl-1,2-diphényléthylamine)
 mais non compris :
 La léfétamine (en) ((-)-N,N-diméthyl-α-phénylbenzèneéthanamine), ses sels, ses dérivés et ses isomères ainsi que les sels de ses dérivés et de ses isomères
-Le W-18 (en) (4-chloro-N-[1- [2- (4-nitrophényl) éthyl] -2-pipéridinylidène] benzènesulfonamide), ses sels, ses dérivés, ses isomères et ses analogues ainsi que les sels de ses dérivés, de ses isomères et de ses analogues
-Annexe II
-Le chanvre indien (Cannabis) ainsi que ses préparations et ses dérivés, notamment :
+Le W-18 (en) (4-chloro-N-[1- [2- (4-nitrophényl) éthyl] -2-pipéridinylidène] benzènesulfonamide), ses sels, ses dérivés, ses isomères et ses analogues ainsi que les sels de ses dérivés, de ses isomères et de ses analogues</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Loi_réglementant_certaines_drogues_et_autres_substances</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Loi_r%C3%A9glementant_certaines_drogues_et_autres_substances</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des drogues</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Annexe II</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le chanvre indien (Cannabis) ainsi que ses préparations et ses dérivés, notamment :
 La résine de cannabis
 Le cannabis (marihuana)
 Le cannabidiol ([méthyl-3 (méthyl-1 éthenyl)-6 (cyclohexènyl-1)-2]-2 pentyl-5 benzènediol-1,3)
@@ -768,9 +819,43 @@
 N-(1-amino-3-méthyl-1-oxobutan-2-yl)-1-pentyl-1H-indazole-3-carboxamide (AB-PINACA)
 Toute substance ayant une structure 3-carboxamideindole substituée à l’atome d’azote du cycle indole, qu’il y ait ou non davantage de substitution sur ce cycle dans quelque mesure que ce soit et qu’il y ait ou non substitution au groupe carboxamide dans quelque mesure que ce soit, notamment :
 N-(adamantan-1-yl)-1-fluoropentylindole-3-carboxamide (STS-135)
-N-(adamantan-1-yl)-1-pentylindole-3-carboxamide (APICA)
-Annexe III
-Abrogé en 2012
+N-(adamantan-1-yl)-1-pentylindole-3-carboxamide (APICA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Loi_réglementant_certaines_drogues_et_autres_substances</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Loi_r%C3%A9glementant_certaines_drogues_et_autres_substances</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des drogues</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Annexe III</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Abrogé en 2012
 Le méthylphénidate (ester méthylique de l’acide α–phénylpipéridine–2 acétique) et ses sels
 Le méthaqualone (méthyl–2 (méthyl–2 phényl)–3 (3H)–quinazolinone–4) et ses sels
 Le mécloqualone (en) (méthyl–2 (chloro–2 phényl)–3 (3H)–quinazolinone–4) et ses sels
@@ -809,9 +894,43 @@
 4-bromo-2,5-diméthoxy-N-(2-méthoxybenzyle)phénéthylamine (25B-NBOMe)
 4-chloro-2,5-diméthoxy-N-(2-méthoxybenzyle)phénéthylamine (25C-NBOMe)
 4-iodo-2,5-diméthoxy-N-(2-méthoxybenzyle)phénéthylamine (25I-NBOMe)
-4-bromo-2,5-diméthoxybenzèneéthanamine (2C-B)
-Annexe IV
-Les barbituriques ainsi que leurs seuls et leurs dérivés, notamment :
+4-bromo-2,5-diméthoxybenzèneéthanamine (2C-B)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Loi_réglementant_certaines_drogues_et_autres_substances</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Loi_r%C3%A9glementant_certaines_drogues_et_autres_substances</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des drogues</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Annexe IV</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les barbituriques ainsi que leurs seuls et leurs dérivés, notamment :
 L'allobarbital (en) (acide diallyl–5,5 barbiturique)
 L'alphénal (en) (acide allyl–5 phényl–5 barbiturique)
 L'amobarbital (acide éthyl–5 (méthyl–3 butyl)–5 barbiturique)
@@ -894,7 +1013,233 @@
 L'oxazépam (chloro–7 dihydro–1,3 hydroxy–3 phényl–5 2H–benzodiazépine–1,4 one–2)
 L'oxazolam (en) (chloro–10 tétrahydro–2,3,7,11b méthyl–2 phényl–11b oxazolo[3,2–d] (5H)–benzodiazépine–1,4 one–6)
 Le pinazépam (en) (chloro–7 dihydro–1,3 phényl–5 (propynyl–2)–1 2H–benzodiazépine–1,4 one–2)
-Le prazépam (chloro–7 (cyclopropylméthyl)–1 dihydr</t>
+Le prazépam (chloro–7 (cyclopropylméthyl)–1 dihydro–1,3 phényl–5 2H–benzodiazépine–1,4 one–2)
+Le quazépam (chloro-7 (o-fluorophényl)-5 dihydro-1,3(trifluoroéthyl-2,2,2)-1 2H-benzodiazépine-1,4 thione-2)
+Le témazépam (chloro–7 dihydro–1,3 hydroxy–3 méthyl–1 phényl–5 2H–benzodiazépine–1,4 one–2)
+Le tétrazépam (chloro–7 (cyclohexène–1 yl)–5 dihydro–1,3 méthyl–1 2H–benzodiazépine–1,4 one–2)
+Le triazolam (chloro–8 (o–chlorophényl)–6 méthyl–1 4H–s–triazolo[4,3–a]benzodiazépine–1,4)
+mais non compris :
+La clozapine (chloro-8 (méthyl-4 pipérazinyl-1)-11 5H-diabenzo[b,e]diazépine-1,4) ainsi que ses sels
+Le flunitrazépam ((o-fluorophényl)-5 dihydro-1,3 méthyl-1 nitro-7 2H-benzodiazépine-1,4 one-2) ainsi que ses sels et ses dérivés
+L'olanzapine (méthyl-2 (méthyl-4 pipérazinyl-1)-4 10H-thieno[2,3-b]benzodiazépine-1,5) et ses sels
+N-oxyde de clozapine (8-chloro-11-(4-méthyl-4-oxydo-1-pipérazinyl)-5H-dibenzo[b,e][1,4]diazépine) et ses sels
+Catha edulis Forsk, ses préparations, ses dérivés, ses alcaloïdes et ses sels, notamment :
+La cathine (d–thréo–amino–2 hydroxy–1 phényl–1 propane)
+La fencamfamine (en) (d,l–N–éthyl phényl–3 bicyclo[2,2,1]heptanamine–2) et ses sels
+Le fenproporex (en) (d,l–[(α–méthylphénéthyl)amino]–3 propionitrile) et ses sels
+Le méfénorex (en) (d,l–N–(chloro–3 propyl) α–méthylbenzèneéthanamine) et ses sels
+Les stéroïdes anabolisants et leurs dérivés, notamment :
+...
+Le zeranol (trihydroxy–7,14,16 méthyl–3 décahydro–3,4,5,6, 7,8,9,10,11,12 1H–benzoxa–2 cyclotétradécinone–1)
+Le zolpidem (N,N-diméthyl [méthyl-6 (méthyl-4 phényl)-2 imidazo[1,2-a]pyridinyl-3]-2 acétamide) et ses sels
+La pémoline (amino-2 phényl-5 oxazolinone-4) et ses sels
+La pyrovalérone (méthyl-4′(pyrrolidinyl-1)-2 valérophénone) et ses sels
+La Salvia divinorum (S. divinorum), ses préparations et ses dérivés, notamment :
+La salvinorine A (ester méthylique de l’acide (2S,4aR,6aR,7R,9S,10aS,10bR)-9-(acétyloxy)-2-(3-furanyl)dodécahydro-6a,10b-diméthyl-4,10-dioxo-2Hnaphto[2,1-c]pyran-7-carboxylique)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Loi_réglementant_certaines_drogues_et_autres_substances</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Loi_r%C3%A9glementant_certaines_drogues_et_autres_substances</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des drogues</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Annexe V</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Abrogé en 2002
+propylhexédrine (d,l–cyclohexyl–1 méthylamino–2 propane) et ses sels
+Abrogé en 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Loi_réglementant_certaines_drogues_et_autres_substances</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Loi_r%C3%A9glementant_certaines_drogues_et_autres_substances</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des drogues</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Annexe VI</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Partie 1</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Précurseurs de catégorie A :
+Anhydride acétique
+Acide N-acétylanthranilique (acide 2-acétamidobenzoïque) et ses sels
+Acide anthranilique (acide 2-aminobenzoïque) et ses sels
+Éphédrine (érythro (méthylamino)-2 phényl-1 propanol-1), ses sels et les plantes qui en contiennent
+Ergométrine (didéhydro-9,10 N-(hydroxy-2 méthyl-1 éthyl) méthyl-6 ergolinecarboxamide-8) et ses sels
+Ergotamine (hydroxy-12′ méthyl-2′ phénylméthyl-5′ergotamantrione-3′,6′,18) et ses sels
+Isosafrole (propényl-1)-5 benzodioxole-1,3)
+Acide lysergique (acide didéhydro-9,10 méthyl-6 ergoline carboxylique-8) et ses sels
+Méthylènedioxyphényle-3,4 propanone-2 ((benzodioxole-1,3)-1 propanone-2), ses dérivés et analogues, ainsi que les sels de ses dérivés et analogues, notamment :
+méthyl 3-(1,3-benzodioxol-5-yl)-2-méthyloxirane-2-carboxylate (MMDMG)
+Noréphédrine (phénylpropanolamine) et ses sels
+Phényl-1 propanone-2, ses dérivés et analogues, ainsi que les sels de ses dérivés et analogues, notamment :
+méthyl-2-méthyl-3-phényloxirane-2-carboxylate de méthyle (glycidate de méthyle-BMC)
+3-oxo-2-phénylbutanamide (α-phénylacétoacétamide-APAA)
+Acide phénylacétique et ses sels
+Pipéridine et ses sels
+Pipéronal (benzodioxole-1,3 carboxaldehyde-5)
+Permanganate de potassium
+Pseudoéphédrine (thréo (méthylamino)-2 phényl-1 propanol-1), ses sels et les plantes qui en contiennent
+Safrole ((propényl-2)-5 benzodioxole-1,3) et les huiles essentielles qui en contiennent plus de 4 %
+Gamma-butyrolactone (dihydro-2(3H)-furanone)
+Butane-1,4-diol
+Phosphore rouge
+Phosphore blanc
+Acide hypophosphoreux et ses sels et dérivés
+Acide hydriodique
+Alpha-phénylacétoacétonitrile, ses sels, isomères et sels d’isomères
+Chlorure de propionyle
+Phénéthyl-1 pipéridone-4 et ses sels
+Pipéridone-4 et ses sels
+Norfentanyl (N-phényl-N- (pipéridinyl-4)propanamide), ses sels, dérivés et analogues, ainsi que les sels de ses dérivés et analogues
+N-(Phénéthyl-1 pipéridinylidene-4) phénylamine et ses sels
+N-phényle 4-pipéridinamine (N-phénylpipéridine-4-amine), ses sels, dérivés et analogues, ainsi que les sels de ses dérivés et analogues, notamment :
+4-anilino-1-boc-pipéridine (tert-butyle 4-(phénylamino)pipéridine-1-carboxylate)
+4-fluoro anilino-1-boc-pipéridine (tert-butyle 4-((4-fluorophényl)amino)pipéridine-1-carboxylate)
+N-(4-fluorophényl)-4-pipéridinamine (N-(4-fluorophényl)pipéridine-4-amine)
+4-bromo anilino-1-boc-pipéridine (tert-butyle 4-((4-bromophényl)amino)pipéridine-1-carboxylate)
+N1,N1,N2-triméthylcyclohexane-1,2-diamine et ses sels
+Benzylfentanyl (N-(1-benzylpipéridin-4-yl)-N-phénylpropionamide), ses sels, dérivés et analogues, ainsi que les sels de ses dérivés et analogues</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Loi_réglementant_certaines_drogues_et_autres_substances</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Loi_r%C3%A9glementant_certaines_drogues_et_autres_substances</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des drogues</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Annexe VI</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Partie 2</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Précurseurs de catégorie B :
+Acétone
+Éther éthylique
+Acide chlorhydrique
+Méthyléthylcétone
+Acide sulphurique
+Toluène</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Loi_réglementant_certaines_drogues_et_autres_substances</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Loi_r%C3%A9glementant_certaines_drogues_et_autres_substances</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des drogues</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Annexe VI</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Partie 3</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Préparations et mélanges :
+Toute préparation ou tout mélange qui contient l'un des précurseurs visés à la partie 1, à l'exception des articles 20 à 23, ou à la partie 2.</t>
         </is>
       </c>
     </row>
